--- a/1000_Empresas_mas_grandes_del_país.xlsx
+++ b/1000_Empresas_mas_grandes_del_país.xlsx
@@ -4464,9 +4464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A965" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M980" sqref="M980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5387,6 +5387,15 @@
       <c r="O15">
         <v>517728</v>
       </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -7914,6 +7923,15 @@
       <c r="O56">
         <v>1649847477</v>
       </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -45057,6 +45075,12 @@
       <c r="P656">
         <v>5</v>
       </c>
+      <c r="Q656">
+        <v>0</v>
+      </c>
+      <c r="R656">
+        <v>0</v>
+      </c>
     </row>
     <row r="657" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A657">
@@ -51613,6 +51637,9 @@
       </c>
       <c r="Q762">
         <v>19037</v>
+      </c>
+      <c r="R762">
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:20" x14ac:dyDescent="0.25">
